--- a/hecBidding/상상진화/20210824/space planning test 0802mk 001.xlsx
+++ b/hecBidding/상상진화/20210824/space planning test 0802mk 001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whcho\01 Project\현대eng\0802\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjmk0\Downloads\MK\mQ\hecBidding\상상진화\20210824\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8077AD21-497C-4A72-AF80-211B2BA2D6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AE6462-A5DF-499F-9FDA-8D1B4DE0D29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -65,7 +74,7 @@
   </si>
   <si>
     <t>lev</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Interior Finish</t>
@@ -75,18 +84,18 @@
   </si>
   <si>
     <t>Switchgear Room</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>EL</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Blue</t>
   </si>
   <si>
     <t>GF</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>IF1</t>
@@ -96,14 +105,14 @@
   </si>
   <si>
     <t>Battery Room</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>IF4</t>
   </si>
   <si>
     <t>Stairway</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>AR</t>
@@ -116,15 +125,15 @@
   </si>
   <si>
     <t>Cable Room</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>B1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Electronic Room</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>CI</t>
@@ -134,30 +143,30 @@
   </si>
   <si>
     <t>1st</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Electrical Room</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>EL</t>
   </si>
   <si>
     <t>Corridor</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>IF2-1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1st</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Duct Shaft</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HV</t>
@@ -167,35 +176,35 @@
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Pipe Shaft</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Central Control Room</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2nd</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>IF3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Engineer Room</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Document Room</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Fire Gas Room</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>SF</t>
@@ -205,91 +214,91 @@
   </si>
   <si>
     <t>Kitch &amp; Lunch Room</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Toilet (M)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>IF5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Toilet (F)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Shift Office Room</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LOTO Office Room</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Shower Room (F)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Locker Room (F)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Shower Room (M)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Locker Room (M)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Space ID</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Space Name</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Area (m2)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Adjacent Spaces</t>
-    <phoneticPr fontId="7" type="Hiragana"/>
+    <phoneticPr fontId="8" type="Hiragana"/>
   </si>
   <si>
     <t>Deparment</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Deparment ID</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Adjacent Departments</t>
-    <phoneticPr fontId="7" type="Hiragana"/>
+    <phoneticPr fontId="8" type="Hiragana"/>
   </si>
   <si>
     <t>Interior Finish</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Exterior Finish</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Floor</t>
-    <phoneticPr fontId="7" type="Hiragana"/>
+    <phoneticPr fontId="8" type="Hiragana"/>
   </si>
   <si>
     <t>Room ID</t>
-    <phoneticPr fontId="7" type="Hiragana"/>
+    <phoneticPr fontId="8" type="Hiragana"/>
   </si>
   <si>
     <t>Room KKS ID</t>
-    <phoneticPr fontId="7" type="Hiragana"/>
+    <phoneticPr fontId="8" type="Hiragana"/>
   </si>
   <si>
     <t>Room Name</t>
@@ -302,426 +311,426 @@
   </si>
   <si>
     <t>Height (m)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>C.H (m)</t>
-    <phoneticPr fontId="7" type="Hiragana"/>
+    <phoneticPr fontId="8" type="Hiragana"/>
   </si>
   <si>
     <t>Area (m2)</t>
   </si>
   <si>
     <t>Adjacent Room</t>
-    <phoneticPr fontId="7" type="Hiragana"/>
+    <phoneticPr fontId="8" type="Hiragana"/>
   </si>
   <si>
     <t>Dicipline</t>
-    <phoneticPr fontId="7" type="Hiragana"/>
+    <phoneticPr fontId="8" type="Hiragana"/>
   </si>
   <si>
     <t>Dicipline ID</t>
-    <phoneticPr fontId="7" type="Hiragana"/>
+    <phoneticPr fontId="8" type="Hiragana"/>
   </si>
   <si>
     <t>Adjacent Dicipline</t>
-    <phoneticPr fontId="7" type="Hiragana"/>
+    <phoneticPr fontId="8" type="Hiragana"/>
   </si>
   <si>
     <t>Colour</t>
-    <phoneticPr fontId="7" type="Hiragana"/>
+    <phoneticPr fontId="8" type="Hiragana"/>
   </si>
   <si>
     <t>Occupancy</t>
   </si>
   <si>
     <t>Mass</t>
-    <phoneticPr fontId="7" type="Hiragana"/>
+    <phoneticPr fontId="8" type="Hiragana"/>
   </si>
   <si>
     <t>Dicipline</t>
-    <phoneticPr fontId="7" type="Hiragana"/>
+    <phoneticPr fontId="8" type="Hiragana"/>
   </si>
   <si>
     <t>Dicipline ID</t>
-    <phoneticPr fontId="7" type="Hiragana"/>
+    <phoneticPr fontId="8" type="Hiragana"/>
   </si>
   <si>
     <t>Colour</t>
-    <phoneticPr fontId="7" type="Hiragana"/>
+    <phoneticPr fontId="8" type="Hiragana"/>
   </si>
   <si>
     <t>B1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t/>
   </si>
   <si>
     <t>PPR</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Orange</t>
-    <phoneticPr fontId="7" type="Hiragana"/>
+    <phoneticPr fontId="8" type="Hiragana"/>
   </si>
   <si>
     <t>UCA01R0001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>EL</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Industrial Low Hazard</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>B0</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Yellow</t>
-    <phoneticPr fontId="7" type="Hiragana"/>
+    <phoneticPr fontId="8" type="Hiragana"/>
   </si>
   <si>
     <t>UCA01R0002</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Stairway</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>AR</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>CI</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Lime</t>
-    <phoneticPr fontId="7" type="Hiragana"/>
+    <phoneticPr fontId="8" type="Hiragana"/>
   </si>
   <si>
     <t>PI</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>GF</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>EN</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>UCA02R0001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Switchgear Room</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1F1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>MR</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>UCA02R0002</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Battery Room</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1F2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>CV</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>UCA02R0003</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Stairway</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>AR</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Cyan</t>
-    <phoneticPr fontId="7" type="Hiragana"/>
+    <phoneticPr fontId="8" type="Hiragana"/>
   </si>
   <si>
     <t>HV</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>SF</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>UCA03R0001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2F1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>UCA03R0002</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2F2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>UCA03R0003</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Corridor</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2F3</t>
   </si>
   <si>
     <t>UCA03R0004</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>4,5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2F4</t>
   </si>
   <si>
     <t>Duct Shaft</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3,5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2F5</t>
   </si>
   <si>
     <t>Pipe Shaft</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3,4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HV</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2F6</t>
   </si>
   <si>
     <t>2nd</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>UCA04R0001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Central Control Room</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3F1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>UCA04R0002</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Engineer Room</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3F2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>UCA04R0003</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3F3</t>
   </si>
   <si>
     <t>UCA04R0004</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Fire Gas Room</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3F4</t>
   </si>
   <si>
     <t>UCA04R0006</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3F5</t>
   </si>
   <si>
     <t>UCA04R0007</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>6,11,12,13,14</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3F6</t>
   </si>
   <si>
     <t>UCA04R0008</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Toilet (F)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>5,11,12,13,14</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3F7</t>
   </si>
   <si>
     <t>UCA04R0009</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3F8</t>
   </si>
   <si>
     <t>UCA04R0010</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>15,16</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3F9</t>
   </si>
   <si>
     <t>UCA04R0011</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Shift Office Room</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3F10</t>
   </si>
   <si>
     <t>UCA04R0012</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LOTO Office Room</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3F11</t>
   </si>
   <si>
     <t>UCA04R0013</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>5,6,12,13,14</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3F12</t>
   </si>
   <si>
     <t>UCA04R0014</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Locker Room (F)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>5,6,11,13,14</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3F13</t>
   </si>
   <si>
     <t>UCA04R0015</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>5,6,11,12,14</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3F14</t>
   </si>
   <si>
     <t>UCA04R0016</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Locker Room (M)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>5,6,11,12,13</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3F15</t>
   </si>
   <si>
     <t>8,16</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3F16</t>
   </si>
   <si>
     <t>Pipe Shaft</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>8,15</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3F17</t>
@@ -818,143 +827,143 @@
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>E</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>GL</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>E</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>F</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>G</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>H</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>I</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>J</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>K</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>L</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>M</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>P</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Q</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>T</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>U</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>W</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Z</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>AA</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>BB</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>0.1.2.3.4.5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>7.8.9.10</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ADJACENT SPACES</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ADJACENT DEPARTMENTS</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -971,7 +980,7 @@
       </rPr>
       <t>,</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Cable Room</t>
@@ -1054,7 +1063,7 @@
       </rPr>
       <t>ENGTH</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>B1</t>
@@ -1083,7 +1092,7 @@
       </rPr>
       <t>,</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1100,7 +1109,7 @@
       </rPr>
       <t>,</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1117,7 +1126,7 @@
       </rPr>
       <t>,</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1134,7 +1143,7 @@
       </rPr>
       <t>,</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1151,11 +1160,11 @@
       </rPr>
       <t>,</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>6,7,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1172,11 +1181,11 @@
       </rPr>
       <t>,</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>8,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1193,7 +1202,7 @@
       </rPr>
       <t>9,</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1210,7 +1219,7 @@
       </rPr>
       <t>,</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1227,11 +1236,11 @@
       </rPr>
       <t>1,18,</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>12,18,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1248,7 +1257,7 @@
       </rPr>
       <t>8,20,</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1265,7 +1274,7 @@
       </rPr>
       <t>1,</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1282,7 +1291,7 @@
       </rPr>
       <t>8,</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1299,7 +1308,7 @@
       </rPr>
       <t>8,</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1316,7 +1325,7 @@
       </rPr>
       <t>7,18,</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1333,7 +1342,7 @@
       </rPr>
       <t>8,</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1350,7 +1359,7 @@
       </rPr>
       <t>9,</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1367,11 +1376,11 @@
       </rPr>
       <t>7,</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>17,22,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1388,87 +1397,87 @@
       </rPr>
       <t>6,</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>16,24,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>PATHV1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>PATHV1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>PATHV2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>PATHV3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Rotate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DEPARTMENTS ADJ</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>F</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>G</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>H</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>I</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>J</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>K</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>L</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>M</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1479,12 +1488,20 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2506,59 +2523,140 @@
   </borders>
   <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2570,9 +2668,6 @@
     <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2580,9 +2675,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2594,9 +2686,6 @@
     <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2604,9 +2693,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2618,9 +2704,6 @@
     <xf numFmtId="0" fontId="6" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2630,220 +2713,154 @@
     <xf numFmtId="0" fontId="6" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2861,13 +2878,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2879,7 +2896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2888,13 +2905,13 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
@@ -2906,86 +2923,86 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="45">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="45">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="45" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="45" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="43" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="43" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="45" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="45" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="60" borderId="1" xfId="45" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="60" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="60" borderId="1" xfId="45" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="60" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="60" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="60" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="60" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="7" fillId="60" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="8" fillId="60" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="60" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="60" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="60" borderId="1" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="60" borderId="1" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="60" borderId="1" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="60" borderId="1" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="43" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="43" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5706,7 +5723,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I28" sqref="I28:I29"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6143,21 +6160,21 @@
         <v>1</v>
       </c>
       <c r="F9" s="87">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="G9" s="87">
-        <v>36000</v>
+        <v>2000</v>
       </c>
       <c r="H9" s="87">
         <v>6000</v>
       </c>
       <c r="I9" s="86">
         <f t="shared" si="0"/>
-        <v>86400000</v>
+        <v>4000000</v>
       </c>
       <c r="J9" s="86">
         <f t="shared" si="1"/>
-        <v>86400000</v>
+        <v>4000000</v>
       </c>
       <c r="K9" s="97" t="s">
         <v>285</v>
@@ -7175,7 +7192,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7271,7 +7288,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7328,7 +7345,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7404,7 +7421,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8449,7 +8466,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9509,7 +9526,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10555,7 +10572,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11614,7 +11631,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12685,7 +12702,7 @@
       <c r="L29" s="80"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13803,7 +13820,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="I3:I11">
     <cfRule type="cellIs" dxfId="293" priority="281" operator="equal">
       <formula>"Red"</formula>
@@ -16314,7 +16331,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
